--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_von_Kittlitz/Heinrich_von_Kittlitz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_von_Kittlitz/Heinrich_von_Kittlitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Friedrich Heinrich von Kittlitz est un naturaliste, ornithologue, peintre naturaliste et explorateur prussien, né le 16 février 1799 à Breslau et mort le 10 avril 1874 à Mayence.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le descendant d'une vieille famille de l'aristocratie prussienne, Freiherr signifiant littéralement seigneur indépendant, et correspondant au rang de baron. Kittlitz est engagé en 1826 dans l'équipe scientifique du navire russe, le Séniavine[1], qui doit faire le tour du monde pour le compte de l'Académie impériale des sciences de Saint-Pétersbourg. L'expédition est commandée par le capitaine von Lütke (1797-1882) et dure jusqu'en 1829. Kittlitz est accompagné du botaniste Karl Heinrich Mertens et du minéralogiste Alexandre Postels.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le descendant d'une vieille famille de l'aristocratie prussienne, Freiherr signifiant littéralement seigneur indépendant, et correspondant au rang de baron. Kittlitz est engagé en 1826 dans l'équipe scientifique du navire russe, le Séniavine, qui doit faire le tour du monde pour le compte de l'Académie impériale des sciences de Saint-Pétersbourg. L'expédition est commandée par le capitaine von Lütke (1797-1882) et dure jusqu'en 1829. Kittlitz est accompagné du botaniste Karl Heinrich Mertens et du minéralogiste Alexandre Postels.
 L'expédition part de Kronstadt le 16 août 1826, traverse la Manche et l'océan Atlantique, passe par le cap Horn le 27 février 1827, remonte par les côtes du Chili et remonte jusqu'à l'actuel Alaska (alors possession de l'Empire russe), puis atteint le Kamtchatka et Petropavlovsk à la mi-septembre. L'expédition explore ensuite les îles Carolines et les actuelles îles Bonin et retourne au Kamtchatka en mai. Pendant l'été, le Séniavine explore la baie d'Avatcha et le détroit de Béring, remontant jusqu'à l'Anadyr. Ensuite l'expédition redescend jusqu'à Manille et le cap de Bonne-Espérance pour remonter l'Afrique et rentrer en Europe. Elle arrive à Kronstadt le 16 septembre 1829.
 Le baron von Killitz fournit au muséum de l'Académie impériale de Saint-Pétersbourg 754 spécimens de 314 espèces d'oiseaux, dont des spécimens d'espèces éteintes depuis. Il fait paraître en 1844 24 Vegetationsansichten von den Küstenländern und Inseln des Stillen Ozeans (en français : Vingt-quatre vues de la végétation des côtes et des îles du Pacifique).
 Kittlitz voyage ensuite en Afrique du Nord en 1831 avec son ami Eduard Rüppell (1794-1884), mais il doit retourner en Allemagne à cause de problème de santé. C'est durant ce voyage, alors qu'il attendait un bateau en Égypte, qu'il découvre l'oiseau connu aujourd'hui sous le nom de gravelot pâtre, Charadrius pecuarius.
@@ -545,7 +559,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kittlitz a donné son nom à plusieurs espèces d'oiseaux :
 Le Diamant de Kittlitz ou Pape de Kittlitz (Erythrura trichroa) ;
@@ -582,7 +598,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kupfertafeln zur Naturgeschichte der Vögel (Francfort, 1832).
 24 Vegetationsansichten von den Küstenländern und Inseln des Stillen Ozeans (Wiesbaden 1845-1852).
